--- a/assets/findings/2024-02-19-findings.xlsx
+++ b/assets/findings/2024-02-19-findings.xlsx
@@ -631,8 +631,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,8 +666,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -730,8 +734,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -763,8 +769,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -829,8 +837,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -862,8 +872,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -928,8 +940,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -961,8 +975,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1027,8 +1043,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1060,8 +1078,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1126,8 +1146,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1159,8 +1181,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1225,8 +1249,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1258,8 +1284,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1324,8 +1352,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1357,8 +1387,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1423,8 +1455,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1456,8 +1490,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1522,8 +1558,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1555,8 +1593,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1621,8 +1661,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1654,8 +1696,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1720,8 +1764,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1753,8 +1799,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1819,8 +1867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1852,8 +1902,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1918,8 +1970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1951,8 +2005,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2017,8 +2073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2050,8 +2108,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2116,8 +2176,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2149,8 +2211,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2215,8 +2279,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2248,8 +2314,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2314,8 +2382,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2347,8 +2417,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2606,8 +2678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2639,8 +2713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2705,8 +2781,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2738,8 +2816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2804,8 +2884,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2837,8 +2919,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2903,8 +2987,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2936,8 +3022,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3002,8 +3090,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3035,8 +3125,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3101,8 +3193,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3134,8 +3228,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3200,8 +3296,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3233,8 +3331,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3299,8 +3399,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3332,8 +3434,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3398,8 +3502,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3431,8 +3537,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3497,8 +3605,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3530,8 +3640,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3596,8 +3708,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3629,8 +3743,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3695,8 +3811,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -3728,8 +3846,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3794,8 +3914,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3827,8 +3949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3893,8 +4017,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -3926,8 +4052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -3992,8 +4120,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4025,8 +4155,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4091,8 +4223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4124,8 +4258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4190,8 +4326,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -4223,8 +4361,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -4289,8 +4429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -4322,8 +4464,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -4388,8 +4532,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -4421,8 +4567,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -4487,8 +4635,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -4520,8 +4670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -4586,8 +4738,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -4619,8 +4773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -4685,8 +4841,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -4718,8 +4876,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -4784,8 +4944,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -4817,8 +4979,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -4883,8 +5047,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -4916,8 +5082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -4982,8 +5150,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -5015,8 +5185,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -5081,8 +5253,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -5114,8 +5288,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -5180,8 +5356,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -5213,8 +5391,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -5490,8 +5670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5523,8 +5705,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5589,8 +5773,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -5622,8 +5808,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5688,8 +5876,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -5721,8 +5911,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5787,8 +5979,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -5820,8 +6014,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5886,8 +6082,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -5919,8 +6117,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5985,8 +6185,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6018,8 +6220,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6253,8 +6457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6286,8 +6492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6352,8 +6560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6385,8 +6595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6451,8 +6663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -6484,8 +6698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6550,8 +6766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -6583,8 +6801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6649,8 +6869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -6682,8 +6904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6748,8 +6972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6781,8 +7007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6847,8 +7075,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -6880,8 +7110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6946,8 +7178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -6979,8 +7213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -7045,8 +7281,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -7078,8 +7316,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7144,8 +7384,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -7177,8 +7419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7243,8 +7487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -7276,8 +7522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -7342,8 +7590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -7375,8 +7625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -7622,8 +7874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -7655,8 +7909,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7721,8 +7977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7754,8 +8012,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7981,8 +8241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -8014,8 +8276,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -8080,8 +8344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -8113,8 +8379,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -8179,8 +8447,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -8212,8 +8482,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -8278,8 +8550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -8311,8 +8585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -8377,8 +8653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -8410,8 +8688,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -8476,8 +8756,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -8509,8 +8791,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -8575,8 +8859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -8608,8 +8894,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -8674,8 +8962,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -8707,8 +8997,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -8773,8 +9065,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -8806,8 +9100,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -8872,8 +9168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -8905,8 +9203,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -8971,8 +9271,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -9004,8 +9306,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -9070,8 +9374,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -9103,8 +9409,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -9350,8 +9658,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9383,8 +9693,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9449,8 +9761,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -9482,8 +9796,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -9548,8 +9864,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -9581,8 +9899,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -9647,8 +9967,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -9680,8 +10002,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -9746,8 +10070,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -9779,8 +10105,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -9845,8 +10173,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -9878,8 +10208,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10113,8 +10445,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -10146,8 +10480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10212,8 +10548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -10245,8 +10583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10311,8 +10651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -10344,8 +10686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10410,8 +10754,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -10443,8 +10789,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10509,8 +10857,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -10542,8 +10892,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10608,8 +10960,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -10641,8 +10995,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10707,8 +11063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -10740,8 +11098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10806,8 +11166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -10839,8 +11201,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10905,8 +11269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -10938,8 +11304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11004,8 +11372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -11037,8 +11407,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11280,8 +11652,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -11313,8 +11687,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11379,8 +11755,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -11412,8 +11790,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -11478,8 +11858,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -11511,8 +11893,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -11740,8 +12124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -11773,8 +12159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11839,8 +12227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -11872,8 +12262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -12099,8 +12491,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -12132,8 +12526,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -12198,8 +12594,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -12231,8 +12629,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
